--- a/time-Sheet/time_sheet.xlsx
+++ b/time-Sheet/time_sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="33">
   <si>
     <t>Catégorie</t>
   </si>
@@ -99,6 +99,30 @@
   </si>
   <si>
     <t>Validation code</t>
+  </si>
+  <si>
+    <t>Gestion client</t>
+  </si>
+  <si>
+    <t>Choix regime par categorie</t>
+  </si>
+  <si>
+    <t>Choix type regime</t>
+  </si>
+  <si>
+    <t>Genere regime selon poids</t>
+  </si>
+  <si>
+    <t>Gestion Caisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter Code </t>
+  </si>
+  <si>
+    <t>Statistique</t>
+  </si>
+  <si>
+    <t>Statistique Client/regime</t>
   </si>
 </sst>
 </file>
@@ -469,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,15 +554,14 @@
         <v>20</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3">
-        <f>E2-F2</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" ref="H2:H25" si="0">(F2/(F2+G2))</f>
-        <v>0</v>
+        <f t="shared" ref="H2:H28" si="0">(F2/(F2+G2))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -558,15 +581,15 @@
         <v>15</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3">
         <f>E3-F3</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -583,18 +606,18 @@
         <v>19</v>
       </c>
       <c r="E4" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3">
-        <f>E4-F4</f>
-        <v>5</v>
+        <f t="shared" ref="G4:G23" si="1">E4-F4</f>
+        <v>3</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -614,15 +637,15 @@
         <v>15</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G10" si="1">E5-F5</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -642,15 +665,15 @@
         <v>15</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -670,15 +693,14 @@
         <v>20</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -698,15 +720,14 @@
         <v>20</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -726,15 +747,15 @@
         <v>5</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -754,210 +775,510 @@
         <v>15</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2">
+        <v>25</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2">
+        <v>25</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>30</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H22" s="4">
+        <f>(F22/(F22+G22))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2">
+        <v>30</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="2">
+        <v>25</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" ref="G24:G25" si="2">E24-F24</f>
+        <v>25</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E25" s="2">
-        <f>SUM(E2:E24)</f>
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" ref="F25:G25" si="2">SUM(F2:F24)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
         <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <f>SUM(E2:E27)</f>
+        <v>580</v>
+      </c>
+      <c r="F28" s="2">
+        <f>SUM(F2:F27)</f>
+        <v>252</v>
+      </c>
+      <c r="G28" s="2">
+        <f>SUM(G2:G27)</f>
+        <v>368</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.40645161290322579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>16</v>
       </c>
     </row>

--- a/time-Sheet/time_sheet.xlsx
+++ b/time-Sheet/time_sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="35">
   <si>
     <t>Catégorie</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Statistique Client/regime</t>
+  </si>
+  <si>
+    <t>Paiement</t>
+  </si>
+  <si>
+    <t>paiment par le client</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J30" activeCellId="1" sqref="E26 J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" ref="H2:H28" si="0">(F2/(F2+G2))</f>
+        <f t="shared" ref="H2:H31" si="0">(F2/(F2+G2))</f>
         <v>1</v>
       </c>
     </row>
@@ -612,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G23" si="1">E4-F4</f>
+        <f t="shared" ref="G4:G26" si="1">E4-F4</f>
         <v>3</v>
       </c>
       <c r="H4" s="4">
@@ -946,12 +952,11 @@
         <v>15</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -971,15 +976,15 @@
         <v>30</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -999,15 +1004,15 @@
         <v>15</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1027,15 +1032,15 @@
         <v>50</v>
       </c>
       <c r="F19" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1055,15 +1060,15 @@
         <v>30</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1083,15 +1088,15 @@
         <v>25</v>
       </c>
       <c r="F21" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1111,79 +1116,63 @@
         <v>45</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4">
         <f>(F22/(F22+G22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E23" s="2">
-        <v>30</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2">
-        <v>25</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" ref="G24:G25" si="2">E24-F24</f>
-        <v>25</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -1192,93 +1181,169 @@
         <v>19</v>
       </c>
       <c r="E25" s="2">
-        <v>15</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2">
+        <v>30</v>
+      </c>
+      <c r="F26" s="2">
+        <v>30</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2">
+        <v>25</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" ref="G27:G28" si="2">E27-F27</f>
+        <v>25</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <f>SUM(E2:E27)</f>
-        <v>580</v>
-      </c>
-      <c r="F28" s="2">
-        <f>SUM(F2:F27)</f>
-        <v>252</v>
-      </c>
-      <c r="G28" s="2">
-        <f>SUM(G2:G27)</f>
-        <v>368</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.40645161290322579</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <f>SUM(E2:E30)</f>
+        <v>635</v>
+      </c>
+      <c r="F31" s="2">
+        <f>SUM(F2:F30)</f>
+        <v>452</v>
+      </c>
+      <c r="G31" s="2">
+        <f>SUM(G2:G30)</f>
+        <v>148</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7533333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>16</v>
       </c>
     </row>

--- a/time-Sheet/time_sheet.xlsx
+++ b/time-Sheet/time_sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>Catégorie</t>
   </si>
@@ -99,36 +99,6 @@
   </si>
   <si>
     <t>Validation code</t>
-  </si>
-  <si>
-    <t>Gestion client</t>
-  </si>
-  <si>
-    <t>Choix regime par categorie</t>
-  </si>
-  <si>
-    <t>Choix type regime</t>
-  </si>
-  <si>
-    <t>Genere regime selon poids</t>
-  </si>
-  <si>
-    <t>Gestion Caisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter Code </t>
-  </si>
-  <si>
-    <t>Statistique</t>
-  </si>
-  <si>
-    <t>Statistique Client/regime</t>
-  </si>
-  <si>
-    <t>Paiement</t>
-  </si>
-  <si>
-    <t>paiment par le client</t>
   </si>
 </sst>
 </file>
@@ -499,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J30" activeCellId="1" sqref="E26 J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,14 +530,15 @@
         <v>20</v>
       </c>
       <c r="F2" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <f>E2-F2</f>
+        <v>20</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" ref="H2:H31" si="0">(F2/(F2+G2))</f>
-        <v>1</v>
+        <f t="shared" ref="H2:H25" si="0">(F2/(F2+G2))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -587,15 +558,15 @@
         <v>15</v>
       </c>
       <c r="F3" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <f>E3-F3</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -612,18 +583,18 @@
         <v>19</v>
       </c>
       <c r="E4" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G26" si="1">E4-F4</f>
-        <v>3</v>
+        <f>E4-F4</f>
+        <v>5</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -643,15 +614,15 @@
         <v>15</v>
       </c>
       <c r="F5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" ref="G5:G10" si="1">E5-F5</f>
+        <v>15</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -671,15 +642,15 @@
         <v>15</v>
       </c>
       <c r="F6" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -699,14 +670,15 @@
         <v>20</v>
       </c>
       <c r="F7" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -726,14 +698,15 @@
         <v>20</v>
       </c>
       <c r="F8" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -753,15 +726,15 @@
         <v>5</v>
       </c>
       <c r="F9" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -781,569 +754,210 @@
         <v>15</v>
       </c>
       <c r="F10" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2">
-        <v>45</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2">
-        <v>25</v>
-      </c>
-      <c r="F14" s="2">
-        <v>25</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="2">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2">
-        <v>15</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2">
-        <v>35</v>
-      </c>
-      <c r="F16" s="2">
-        <v>15</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2">
-        <v>30</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="2">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2">
-        <v>15</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="2">
-        <v>50</v>
-      </c>
-      <c r="F19" s="2">
-        <v>50</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="2">
-        <v>30</v>
-      </c>
-      <c r="F20" s="2">
-        <v>30</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2">
-        <v>25</v>
-      </c>
-      <c r="F21" s="2">
-        <v>25</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2">
-        <v>45</v>
-      </c>
-      <c r="F22" s="2">
-        <v>45</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <f>(F22/(F22+G22))</f>
-        <v>1</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="2">
-        <v>15</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="2">
-        <v>20</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="2">
-        <v>20</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="2">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2">
-        <v>30</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
+        <f>SUM(E2:E24)</f>
+        <v>130</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" ref="F25:G25" si="2">SUM(F2:F24)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="2">
-        <v>25</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" ref="G27:G28" si="2">E27-F27</f>
-        <v>25</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="A28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2">
-        <f>SUM(E2:E30)</f>
-        <v>635</v>
-      </c>
-      <c r="F31" s="2">
-        <f>SUM(F2:F30)</f>
-        <v>452</v>
-      </c>
-      <c r="G31" s="2">
-        <f>SUM(G2:G30)</f>
-        <v>148</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.7533333333333333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="B31" t="s">
         <v>16</v>
       </c>
     </row>
